--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2012.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2012.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.016*"yes" + 0.013*"foreign" + 0.008*"nonresident" + 0.007*"exchange" + 0.007*"bank" + 0.007*"may" + 0.007*"currency" + 0.006*"abroad" + 0.006*"resident" + 0.006*"transaction"</t>
-  </si>
-  <si>
-    <t>0.030*"yes" + 0.024*"foreign" + 0.020*"exchange" + 0.014*"resident" + 0.013*"currency" + 0.013*"may" + 0.013*"nonresident" + 0.012*"account" + 0.011*"abroad" + 0.011*"payment"</t>
-  </si>
-  <si>
-    <t>0.013*"yes" + 0.010*"foreign" + 0.008*"exchange" + 0.007*"nonresident" + 0.006*"abroad" + 0.006*"currency" + 0.006*"resident" + 0.006*"account" + 0.005*"investment" + 0.005*"may"</t>
-  </si>
-  <si>
-    <t>0.012*"yes" + 0.011*"foreign" + 0.009*"exchange" + 0.007*"bank" + 0.007*"currency" + 0.006*"abroad" + 0.006*"nonresident" + 0.005*"may" + 0.005*"investment" + 0.005*"payment"</t>
-  </si>
-  <si>
-    <t>0.030*"yes" + 0.024*"exchange" + 0.023*"foreign" + 0.012*"resident" + 0.012*"currency" + 0.012*"bank" + 0.011*"nonresident" + 0.011*"may" + 0.011*"abroad" + 0.010*"fund"</t>
+    <t>0.203*"yes" + 0.048*"monetary" + 0.045*"international" + 0.039*"fund" + 0.026*"exchange" + 0.019*"arrangement" + 0.017*"rate" + 0.015*"effective" + 0.013*"article" + 0.013*"december"</t>
+  </si>
+  <si>
+    <t>0.015*"may" + 0.014*"company" + 0.014*"regulation" + 0.013*"fund" + 0.013*"law" + 0.011*"investment" + 0.011*"financial" + 0.011*"must" + 0.010*"country" + 0.010*"entity"</t>
+  </si>
+  <si>
+    <t>0.058*"resident" + 0.057*"nonresident" + 0.037*"abroad" + 0.035*"requirement" + 0.033*"purchase" + 0.032*"issue" + 0.025*"control" + 0.025*"security" + 0.024*"credit" + 0.022*"sale"</t>
+  </si>
+  <si>
+    <t>0.042*"limit" + 0.039*"approval" + 0.038*"payment" + 0.030*"currency" + 0.024*"foreign" + 0.022*"hold" + 0.021*"investment" + 0.021*"domestic" + 0.021*"require" + 0.021*"account"</t>
+  </si>
+  <si>
+    <t>0.072*"foreign" + 0.069*"exchange" + 0.036*"may" + 0.032*"bank" + 0.027*"market" + 0.024*"currency" + 0.021*"account" + 0.019*"rate" + 0.019*"transaction" + 0.012*"transfer"</t>
   </si>
 </sst>
 </file>
